--- a/Data/CQs/Only CQs.xlsx
+++ b/Data/CQs/Only CQs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Desktop\F_Generative AI Results\Repository Files\Data\CQs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Data\CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B5062-90C7-4152-AE4D-6BF1452CE82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010C3DB8-78B0-4AC2-A36E-7E3F55CA87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="405" windowWidth="26115" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AnnotatedRequirementsCSV" sheetId="2" r:id="rId1"/>
@@ -721,9 +721,6 @@
     <t>What are the possible types processing components?</t>
   </si>
   <si>
-    <t>Competency questions</t>
-  </si>
-  <si>
     <t>What data are collected for MMSE</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t xml:space="preserve">What are the possible types of wearable sensors? </t>
+  </si>
+  <si>
+    <t>Competency Questions</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{497E09D6-7C34-4DF0-AC32-60F8A37DA76E}" name="Table_AnnotatedRequirementsCSV" displayName="Table_AnnotatedRequirementsCSV" ref="A1:B634" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B634" xr:uid="{497E09D6-7C34-4DF0-AC32-60F8A37DA76E}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{D19DA487-1440-4F5B-86A7-408AC1D27435}" uniqueName="2" name="Competency questions" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D19DA487-1440-4F5B-86A7-408AC1D27435}" uniqueName="2" name="Competency Questions" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{1484D3F4-379C-404D-8F8D-F9740B9C8DE6}" uniqueName="5" name="Ontology" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1105,9 +1105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B686650-59A0-439F-8898-CC9182BC8321}">
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1118,7 +1116,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2190,7 +2188,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B135" t="s">
         <v>126</v>
@@ -2198,7 +2196,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B136" t="s">
         <v>126</v>
@@ -2694,7 +2692,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B198" t="s">
         <v>126</v>
@@ -2886,7 +2884,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B222" t="s">
         <v>126</v>
@@ -2902,7 +2900,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B224" t="s">
         <v>126</v>
@@ -2918,7 +2916,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
         <v>126</v>
@@ -2926,7 +2924,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
         <v>126</v>
@@ -2934,7 +2932,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>126</v>
@@ -2942,7 +2940,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>126</v>
@@ -2950,7 +2948,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>126</v>
